--- a/biology/Zoologie/Halichoeres/Halichoeres.xlsx
+++ b/biology/Zoologie/Halichoeres/Halichoeres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halichoeres est un genre de poissons téléostéens (Teleostei) de la famille des Labridae ; ils font partie des poissons appelés « girelles » (et souvent « girelles-paons » en raison de leurs couleurs vives).
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre regroupe des labridés vivant pour la plupart en mers chaudes, caractérisés par une silhouette caractéristique des « girelles » et arborant le plus souvent des couleurs aussi variées que flamboyantes. Ces espèces sont hermaphrodite protogyne, ce qui signifie qu'elles naissent femelles pour devenir mâles à l'âge mûr ; notamment pour cette raison, leur riche livrée est souvent très évolutive au cours de leur vie, rendant d'autant plus complexe la détermination des espèces. 
 </t>
@@ -542,18 +556,96 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 mai 2014)[1] :
-Sous-genres[2]
-Halichoeres
-Halichoeres bicolor (Bloch &amp; Schneider, 1801)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 mai 2014) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Halichoeres bicolor (Bloch &amp; Schneider, 1801)
 Halichoeres hartzfeldii (Bleeker, 1852)
 Halichoeres iridis (Randall &amp; Smith, 1982)
 Halichoeres pelicieri (Randall &amp; Smith, 1982)
-Halichoeres zeylonicus (Bennett, 1833)
-Biochoeres
-Halichoeres biocellatus Schultz, 1960
+Halichoeres zeylonicus (Bennett, 1833)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Biochoeres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Halichoeres biocellatus Schultz, 1960
 Halichoeres chrysus Randall, 1981
 Halichoeres claudia Randall &amp; Rocha, 2009
 Halichoeres cosmetus Randall &amp; Smith, 1982
@@ -563,15 +655,91 @@
 Halichoeres orientalis Randall, 1999
 Halichoeres ornatissimus (Garrett, 1863)
 Halichoeres pallidus Kuiter &amp; Randall, 1995
-Halichoeres trispilus Randall &amp; Smith, 1982
-Corichoeres
-Halichoeres melanochir Fowler &amp; Bean, 1928
+Halichoeres trispilus Randall &amp; Smith, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Corichoeres</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Halichoeres melanochir Fowler &amp; Bean, 1928
 Halichoeres prosopeion (Bleeker, 1853)
 Halichoeres signifer Randall &amp; Earle, 1994
 Halichoeres solorensis (Bleeker, 1853)
-Halichoeres tenuispinis (Günther, 1862)
-Hemiulis
-Halichoeres argus (Bloch &amp; Schneider, 1801)
+Halichoeres tenuispinis (Günther, 1862)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hemiulis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Halichoeres argus (Bloch &amp; Schneider, 1801)
 Halichoeres binotopsis (Bleeker, 1849)
 Halichoeres brownfieldi (Whitley, 1945)
 Halichoeres chlorocephalus Kuiter &amp; Randall, 1995
@@ -582,20 +750,172 @@
 Halichoeres papilionaceus (Valenciennes, 1839)
 Halichoeres richmondi Fowler &amp; Bean, 1928
 Halichoeres rubricephalus Kuiter &amp; Randall, 1995
-Halichoeres timorensis (Bleeker, 1852)
-Hemichoris
-Halichoeres chloropterus (Bloch, 1791)
-Halichoeres podostigma (Bleeker, 1854)
-Octocyodon
-Halichoeres margaritaceus (Valenciennes, 1839)
+Halichoeres timorensis (Bleeker, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hemichoris</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Halichoeres chloropterus (Bloch, 1791)
+Halichoeres podostigma (Bleeker, 1854)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Octocyodon</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Halichoeres margaritaceus (Valenciennes, 1839)
 Halichoeres miniatus (Valenciennes, 1839)
-Halichoeres nebulosus (Valenciennes, 1839)
-Hemitautoga
-Halichoeres hortulanus (Lacepède, 1801)
+Halichoeres nebulosus (Valenciennes, 1839)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hemitautoga</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Halichoeres hortulanus (Lacepède, 1801)
 Halichoeres scapularis (Bennett, 1832)
-Halichoeres trimaculatus (Quoy &amp; Gaimard, 1834)
-Iridio
-Halichoeres adustus  (Gilbert, 1890)
+Halichoeres trimaculatus (Quoy &amp; Gaimard, 1834)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Iridio</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Halichoeres adustus  (Gilbert, 1890)
 Halichoeres bathyphilus  (Beebe &amp; Tee-Van, 1932)
 Halichoeres bivittatus  (Bloch, 1791)
 Halichoeres brasiliensis  (Bloch, 1791)
@@ -617,9 +937,47 @@
 Halichoeres radiatus  (Linnaeus, 1758)
 Halichoeres salmofasciatus  (Allen &amp; Robertson, 2002)
 Halichoeres semicinctus  (Ayres, 1859)
-Halichoeres socialis  (Randall &amp; Lobel, 2003)
-Incertae sedis
-Halichoeres aestuaricola  (Bussing, 1972)
+Halichoeres socialis  (Randall &amp; Lobel, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-genres[2]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Incertae sedis</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halichoeres aestuaricola  (Bussing, 1972)
 Halichoeres bleekeri  (Steindachner &amp; Döderlein, 1887)
 Halichoeres burekae  (Weaver &amp; Rocha, 2007)
 Halichoeres girardi  (Bleeker, 1859)
@@ -636,31 +994,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Halichoeres</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Halichoeres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Halichoeres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine WORMS 2019
 </t>
